--- a/data/xlsx/template.xlsx
+++ b/data/xlsx/template.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>bpm</t>
   </si>
   <si>
     <t>0071@022_40_0.npy</t>
+  </si>
+  <si>
+    <t>0071@022_50_1.npy</t>
   </si>
   <si>
     <t>0071@038_10_0.npy</t>
@@ -426,7 +429,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>20</v>
@@ -434,7 +437,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>60</v>
@@ -442,10 +445,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
